--- a/documentation/QA_Cryo.xlsx
+++ b/documentation/QA_Cryo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viki\Pictures\Вики презентации\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viki\Documents\GitHub\Cryo\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A54A2A-D40A-491F-96FD-563383621EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5065C4A9-0868-4E7F-8D93-A415DD68BB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{A6D4AAB8-A785-4009-A828-6DCDF3FD03C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>№</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>TC_01</t>
+  </si>
+  <si>
+    <t>Test case 5</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Testing the digital will form</t>
+  </si>
+  <si>
+    <t>Things can be added</t>
   </si>
 </sst>
 </file>
@@ -272,9 +284,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +294,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,10 +315,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F36BE0-5BE2-40E2-A04F-0A11F522939B}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -637,78 +649,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -716,85 +728,85 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -802,85 +814,85 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>3</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -888,85 +900,85 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>4</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -974,18 +986,97 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="4">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/QA_Cryo.xlsx
+++ b/documentation/QA_Cryo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viki\Documents\GitHub\Cryo\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Cryo\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5065C4A9-0868-4E7F-8D93-A415DD68BB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B63738D-1B51-4D67-B987-C64648867518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{A6D4AAB8-A785-4009-A828-6DCDF3FD03C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6D4AAB8-A785-4009-A828-6DCDF3FD03C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Testing the login form</t>
-  </si>
-  <si>
-    <t>Can be filled</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -65,48 +59,24 @@
     <t>TC_02</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Manual Testing</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Expectations</t>
   </si>
   <si>
-    <t>Test the navigation bar</t>
-  </si>
-  <si>
-    <t>All buttons to work</t>
-  </si>
-  <si>
-    <t>All buttons work</t>
-  </si>
-  <si>
     <t>Test case 3</t>
   </si>
   <si>
     <t>TC_03</t>
   </si>
   <si>
-    <t>Money can be sent</t>
-  </si>
-  <si>
     <t>Test case 4</t>
   </si>
   <si>
     <t>TC_04</t>
   </si>
   <si>
-    <t>Testing the sign up form</t>
-  </si>
-  <si>
-    <t>Testing the money sending form</t>
-  </si>
-  <si>
     <t>Test case 1</t>
   </si>
   <si>
@@ -119,17 +89,65 @@
     <t>TC_05</t>
   </si>
   <si>
-    <t>Testing the digital will form</t>
-  </si>
-  <si>
-    <t>Things can be added</t>
+    <t>Done by</t>
+  </si>
+  <si>
+    <t>Viktoria Kupenova</t>
+  </si>
+  <si>
+    <t>Testing whether the login form checks data from database</t>
+  </si>
+  <si>
+    <t>The login form manages to access the database and checks whether the username and password match</t>
+  </si>
+  <si>
+    <t>Test if each button on the navigation bar manages to lead you to its designated page</t>
+  </si>
+  <si>
+    <t>On click, each button on the navigation bar leads you to its designated page</t>
+  </si>
+  <si>
+    <t>Passed. The login form accesses the database and is able to check if the username exists and if it matches with the password</t>
+  </si>
+  <si>
+    <t>Passed. On click, each button leads you to its designated page</t>
+  </si>
+  <si>
+    <t>Verify the ability of the "Send money" form to send money to another user</t>
+  </si>
+  <si>
+    <t>Upon inputting a value and clicking on the send button it allows for money to be sent to another recipient</t>
+  </si>
+  <si>
+    <t>Passed. Upon inputting a value and clicking on the send button it allows for money to be sent to another recipient</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Verify whether the sign in form adds information to the database</t>
+  </si>
+  <si>
+    <t>The sign in form can access the database and is able to add the inputted information to it</t>
+  </si>
+  <si>
+    <t>Passed. The sign in form can access the database and is able to add the inputted information to it</t>
+  </si>
+  <si>
+    <t>Verify whether you can add items to the digital will</t>
+  </si>
+  <si>
+    <t>Passed. The "add to digital" will form can access the database and add information to it</t>
+  </si>
+  <si>
+    <t>The "add to digital will" form can access the database and add information to it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +200,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -197,24 +222,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -274,53 +298,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -633,441 +793,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F36BE0-5BE2-40E2-A04F-0A11F522939B}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.53125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.53125" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="E7" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="5"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="E15" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E30" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="E38" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="4">
-        <v>3</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="4">
-        <v>4</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="4">
-        <v>5</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1078,6 +1239,19 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A33:E33"/>
   </mergeCells>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>